--- a/CumulativeTestsByTypeByCounty/2021-02-13.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-02-13.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>46159</v>
+        <v>46366</v>
       </c>
       <c r="C2" s="4">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="D2" s="4">
-        <v>5044</v>
+        <v>5102</v>
       </c>
       <c r="E2" s="4">
-        <v>52600</v>
+        <v>52868</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3840</v>
+        <v>3861</v>
       </c>
       <c r="C3" s="4">
         <v>183</v>
       </c>
       <c r="D3" s="4">
-        <v>1793</v>
+        <v>1816</v>
       </c>
       <c r="E3" s="4">
-        <v>5816</v>
+        <v>5860</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>48227</v>
+        <v>48776</v>
       </c>
       <c r="C4" s="4">
-        <v>1420</v>
+        <v>1442</v>
       </c>
       <c r="D4" s="4">
-        <v>14344</v>
+        <v>15158</v>
       </c>
       <c r="E4" s="4">
-        <v>63991</v>
+        <v>65376</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>6247</v>
+        <v>6330</v>
       </c>
       <c r="C5" s="4">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="D5" s="4">
-        <v>3918</v>
+        <v>3964</v>
       </c>
       <c r="E5" s="4">
-        <v>12120</v>
+        <v>12253</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2675</v>
+        <v>2682</v>
       </c>
       <c r="C6" s="4">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D6" s="4">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E6" s="4">
-        <v>3459</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,16 +1156,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C7" s="4">
         <v>210</v>
       </c>
       <c r="D7" s="4">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E7" s="4">
-        <v>865</v>
+        <v>880</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>39875</v>
+        <v>40254</v>
       </c>
       <c r="C8" s="4">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="D8" s="4">
-        <v>3260</v>
+        <v>3364</v>
       </c>
       <c r="E8" s="4">
-        <v>44076</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>15086</v>
+        <v>15228</v>
       </c>
       <c r="C9" s="4">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D9" s="4">
-        <v>618</v>
+        <v>686</v>
       </c>
       <c r="E9" s="4">
-        <v>16093</v>
+        <v>16314</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>1676</v>
+        <v>1680</v>
       </c>
       <c r="C10" s="4">
         <v>39</v>
       </c>
       <c r="D10" s="4">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="E10" s="4">
-        <v>2082</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>6607</v>
+        <v>6674</v>
       </c>
       <c r="C11" s="4">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D11" s="4">
-        <v>2356</v>
+        <v>2421</v>
       </c>
       <c r="E11" s="4">
-        <v>9352</v>
+        <v>9485</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>42902</v>
+        <v>43307</v>
       </c>
       <c r="C12" s="4">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="D12" s="4">
-        <v>12049</v>
+        <v>12277</v>
       </c>
       <c r="E12" s="4">
-        <v>55957</v>
+        <v>56603</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,16 +1258,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C13" s="4">
         <v>114</v>
       </c>
       <c r="D13" s="4">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E13" s="4">
-        <v>1886</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>27489</v>
+        <v>28021</v>
       </c>
       <c r="C14" s="4">
-        <v>4768</v>
+        <v>4783</v>
       </c>
       <c r="D14" s="4">
-        <v>5057</v>
+        <v>5186</v>
       </c>
       <c r="E14" s="4">
-        <v>37314</v>
+        <v>37990</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>207979</v>
+        <v>210079</v>
       </c>
       <c r="C15" s="4">
-        <v>12659</v>
+        <v>12683</v>
       </c>
       <c r="D15" s="4">
-        <v>8400</v>
+        <v>8778</v>
       </c>
       <c r="E15" s="4">
-        <v>229038</v>
+        <v>231540</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1460783</v>
+        <v>1488912</v>
       </c>
       <c r="C16" s="4">
-        <v>40276</v>
+        <v>40466</v>
       </c>
       <c r="D16" s="4">
-        <v>134869</v>
+        <v>139451</v>
       </c>
       <c r="E16" s="4">
-        <v>1635928</v>
+        <v>1668829</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>4953</v>
+        <v>4981</v>
       </c>
       <c r="C17" s="4">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D17" s="4">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="E17" s="4">
-        <v>5626</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1343,16 +1343,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C18" s="4">
         <v>8</v>
       </c>
       <c r="D18" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>7859</v>
+        <v>7932</v>
       </c>
       <c r="C19" s="4">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D19" s="4">
-        <v>3726</v>
+        <v>3801</v>
       </c>
       <c r="E19" s="4">
-        <v>12041</v>
+        <v>12190</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>52880</v>
+        <v>53193</v>
       </c>
       <c r="C20" s="4">
-        <v>9629</v>
+        <v>9642</v>
       </c>
       <c r="D20" s="4">
-        <v>6448</v>
+        <v>6754</v>
       </c>
       <c r="E20" s="4">
-        <v>68957</v>
+        <v>69589</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>260662</v>
+        <v>263046</v>
       </c>
       <c r="C21" s="4">
-        <v>8249</v>
+        <v>8337</v>
       </c>
       <c r="D21" s="4">
-        <v>20282</v>
+        <v>22116</v>
       </c>
       <c r="E21" s="4">
-        <v>289193</v>
+        <v>293499</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>202786</v>
+        <v>204696</v>
       </c>
       <c r="C22" s="4">
-        <v>5204</v>
+        <v>5242</v>
       </c>
       <c r="D22" s="4">
-        <v>11352</v>
+        <v>11675</v>
       </c>
       <c r="E22" s="4">
-        <v>219342</v>
+        <v>221613</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8198</v>
+        <v>8304</v>
       </c>
       <c r="C23" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D23" s="4">
-        <v>437</v>
+        <v>522</v>
       </c>
       <c r="E23" s="4">
-        <v>8740</v>
+        <v>8932</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C24" s="4">
         <v>108</v>
@@ -1454,7 +1454,7 @@
         <v>49</v>
       </c>
       <c r="E24" s="4">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>12103</v>
+        <v>12202</v>
       </c>
       <c r="C25" s="4">
-        <v>1210</v>
+        <v>1221</v>
       </c>
       <c r="D25" s="4">
-        <v>1312</v>
+        <v>1333</v>
       </c>
       <c r="E25" s="4">
-        <v>14625</v>
+        <v>14756</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>15045</v>
+        <v>15150</v>
       </c>
       <c r="C26" s="4">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D26" s="4">
-        <v>14131</v>
+        <v>14390</v>
       </c>
       <c r="E26" s="4">
-        <v>29874</v>
+        <v>30239</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>11947</v>
+        <v>12044</v>
       </c>
       <c r="C27" s="4">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D27" s="4">
-        <v>1585</v>
+        <v>1665</v>
       </c>
       <c r="E27" s="4">
-        <v>13755</v>
+        <v>13934</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>28011</v>
+        <v>28220</v>
       </c>
       <c r="C28" s="4">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="D28" s="4">
-        <v>2225</v>
+        <v>2355</v>
       </c>
       <c r="E28" s="4">
-        <v>31238</v>
+        <v>31585</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>27682</v>
+        <v>27960</v>
       </c>
       <c r="C29" s="4">
-        <v>1476</v>
+        <v>1484</v>
       </c>
       <c r="D29" s="4">
-        <v>4030</v>
+        <v>4187</v>
       </c>
       <c r="E29" s="4">
-        <v>33188</v>
+        <v>33631</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>11842</v>
+        <v>11956</v>
       </c>
       <c r="C30" s="4">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D30" s="4">
-        <v>3531</v>
+        <v>3671</v>
       </c>
       <c r="E30" s="4">
-        <v>15631</v>
+        <v>15897</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4671</v>
+        <v>4688</v>
       </c>
       <c r="C31" s="4">
         <v>212</v>
       </c>
       <c r="D31" s="4">
-        <v>3653</v>
+        <v>3734</v>
       </c>
       <c r="E31" s="4">
-        <v>8536</v>
+        <v>8634</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>211133</v>
+        <v>214131</v>
       </c>
       <c r="C32" s="4">
-        <v>7073</v>
+        <v>7131</v>
       </c>
       <c r="D32" s="4">
-        <v>29138</v>
+        <v>30432</v>
       </c>
       <c r="E32" s="4">
-        <v>247344</v>
+        <v>251694</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>5070</v>
+        <v>5170</v>
       </c>
       <c r="C33" s="4">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="D33" s="4">
-        <v>1193</v>
+        <v>1322</v>
       </c>
       <c r="E33" s="4">
-        <v>6592</v>
+        <v>6832</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1450</v>
+        <v>1459</v>
       </c>
       <c r="C34" s="4">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D34" s="4">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E34" s="4">
-        <v>2364</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>10742</v>
+        <v>10824</v>
       </c>
       <c r="C35" s="4">
-        <v>3065</v>
+        <v>3072</v>
       </c>
       <c r="D35" s="4">
-        <v>2435</v>
+        <v>2512</v>
       </c>
       <c r="E35" s="4">
-        <v>16242</v>
+        <v>16408</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>3498</v>
+        <v>3537</v>
       </c>
       <c r="C36" s="4">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D36" s="4">
-        <v>1449</v>
+        <v>1459</v>
       </c>
       <c r="E36" s="4">
-        <v>5163</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>6860</v>
+        <v>6903</v>
       </c>
       <c r="C37" s="4">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D37" s="4">
-        <v>880</v>
+        <v>909</v>
       </c>
       <c r="E37" s="4">
-        <v>8266</v>
+        <v>8341</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>19901</v>
+        <v>20089</v>
       </c>
       <c r="C38" s="4">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="D38" s="4">
-        <v>5596</v>
+        <v>5791</v>
       </c>
       <c r="E38" s="4">
-        <v>26207</v>
+        <v>26594</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2593</v>
+        <v>2601</v>
       </c>
       <c r="C39" s="4">
         <v>295</v>
       </c>
       <c r="D39" s="4">
-        <v>3614</v>
+        <v>3615</v>
       </c>
       <c r="E39" s="4">
-        <v>6502</v>
+        <v>6511</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3698</v>
+        <v>3715</v>
       </c>
       <c r="C40" s="4">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D40" s="4">
-        <v>939</v>
+        <v>954</v>
       </c>
       <c r="E40" s="4">
-        <v>4995</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C41" s="4">
         <v>15</v>
       </c>
       <c r="D41" s="4">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E41" s="4">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="C42" s="4">
         <v>23</v>
       </c>
       <c r="D42" s="4">
-        <v>1662</v>
+        <v>1667</v>
       </c>
       <c r="E42" s="4">
-        <v>3314</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2803</v>
+        <v>2821</v>
       </c>
       <c r="C43" s="4">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D43" s="4">
-        <v>2159</v>
+        <v>2180</v>
       </c>
       <c r="E43" s="4">
-        <v>5038</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>756040</v>
+        <v>763779</v>
       </c>
       <c r="C44" s="4">
-        <v>73767</v>
+        <v>74107</v>
       </c>
       <c r="D44" s="4">
-        <v>63721</v>
+        <v>65585</v>
       </c>
       <c r="E44" s="4">
-        <v>893528</v>
+        <v>903471</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="C45" s="4">
         <v>85</v>
       </c>
       <c r="D45" s="4">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="E45" s="4">
-        <v>2058</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>10338</v>
+        <v>10428</v>
       </c>
       <c r="C46" s="4">
         <v>254</v>
       </c>
       <c r="D46" s="4">
-        <v>2779</v>
+        <v>2851</v>
       </c>
       <c r="E46" s="4">
-        <v>13371</v>
+        <v>13533</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>80552</v>
+        <v>81405</v>
       </c>
       <c r="C47" s="4">
-        <v>6206</v>
+        <v>6240</v>
       </c>
       <c r="D47" s="4">
-        <v>13210</v>
+        <v>13619</v>
       </c>
       <c r="E47" s="4">
-        <v>99968</v>
+        <v>101264</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>5971</v>
+        <v>5995</v>
       </c>
       <c r="C48" s="4">
         <v>288</v>
       </c>
       <c r="D48" s="4">
-        <v>1854</v>
+        <v>1870</v>
       </c>
       <c r="E48" s="4">
-        <v>8113</v>
+        <v>8153</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="C49" s="4">
         <v>14</v>
       </c>
       <c r="D49" s="4">
-        <v>1142</v>
+        <v>1149</v>
       </c>
       <c r="E49" s="4">
-        <v>2465</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>20869</v>
+        <v>21023</v>
       </c>
       <c r="C50" s="4">
-        <v>1201</v>
+        <v>1212</v>
       </c>
       <c r="D50" s="4">
-        <v>3767</v>
+        <v>3810</v>
       </c>
       <c r="E50" s="4">
-        <v>25837</v>
+        <v>26045</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>73654</v>
+        <v>74215</v>
       </c>
       <c r="C51" s="4">
-        <v>2070</v>
+        <v>2079</v>
       </c>
       <c r="D51" s="4">
-        <v>2203</v>
+        <v>2260</v>
       </c>
       <c r="E51" s="4">
-        <v>77927</v>
+        <v>78554</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C52" s="4">
         <v>20</v>
       </c>
       <c r="D52" s="4">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E52" s="4">
-        <v>1228</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>3804</v>
+        <v>3894</v>
       </c>
       <c r="C53" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D53" s="4">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E53" s="4">
-        <v>4795</v>
+        <v>4902</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1961,10 +1961,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="4">
-        <v>1705</v>
+        <v>1730</v>
       </c>
       <c r="E54" s="4">
-        <v>2634</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2225</v>
+        <v>2230</v>
       </c>
       <c r="C55" s="4">
         <v>18</v>
       </c>
       <c r="D55" s="4">
-        <v>1330</v>
+        <v>1349</v>
       </c>
       <c r="E55" s="4">
-        <v>3573</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,16 +1989,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>1948</v>
+        <v>1966</v>
       </c>
       <c r="C56" s="4">
         <v>12</v>
       </c>
       <c r="D56" s="4">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E56" s="4">
-        <v>2059</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C57" s="4">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D57" s="4">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="E57" s="4">
-        <v>2474</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>1934887</v>
+        <v>1954536</v>
       </c>
       <c r="C58" s="4">
-        <v>121337</v>
+        <v>122021</v>
       </c>
       <c r="D58" s="4">
-        <v>135678</v>
+        <v>139198</v>
       </c>
       <c r="E58" s="4">
-        <v>2191902</v>
+        <v>2215755</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>7068</v>
+        <v>7079</v>
       </c>
       <c r="C59" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D59" s="4">
-        <v>1727</v>
+        <v>1762</v>
       </c>
       <c r="E59" s="4">
-        <v>9216</v>
+        <v>9263</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>7748</v>
+        <v>7825</v>
       </c>
       <c r="C60" s="4">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D60" s="4">
-        <v>1901</v>
+        <v>1982</v>
       </c>
       <c r="E60" s="4">
-        <v>9821</v>
+        <v>9981</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4167</v>
+        <v>4217</v>
       </c>
       <c r="C61" s="4">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D61" s="4">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="E61" s="4">
-        <v>6565</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1530</v>
+        <v>1540</v>
       </c>
       <c r="C62" s="4">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D62" s="4">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="E62" s="4">
-        <v>2601</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>470710</v>
+        <v>475798</v>
       </c>
       <c r="C63" s="4">
-        <v>54340</v>
+        <v>54573</v>
       </c>
       <c r="D63" s="4">
-        <v>56231</v>
+        <v>57673</v>
       </c>
       <c r="E63" s="4">
-        <v>581281</v>
+        <v>588044</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,16 +2125,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C64" s="4">
         <v>5</v>
       </c>
       <c r="D64" s="4">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E64" s="4">
-        <v>715</v>
+        <v>723</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>8753</v>
+        <v>8808</v>
       </c>
       <c r="C65" s="4">
         <v>81</v>
       </c>
       <c r="D65" s="4">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="E65" s="4">
-        <v>9533</v>
+        <v>9608</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="C66" s="4">
         <v>308</v>
       </c>
       <c r="D66" s="4">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="E66" s="4">
-        <v>1918</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>15325</v>
+        <v>15388</v>
       </c>
       <c r="C67" s="4">
-        <v>2094</v>
+        <v>2105</v>
       </c>
       <c r="D67" s="4">
-        <v>1125</v>
+        <v>1225</v>
       </c>
       <c r="E67" s="4">
-        <v>18544</v>
+        <v>18718</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>4136</v>
+        <v>4173</v>
       </c>
       <c r="C68" s="4">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D68" s="4">
-        <v>2719</v>
+        <v>2778</v>
       </c>
       <c r="E68" s="4">
-        <v>7170</v>
+        <v>7267</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>52474</v>
+        <v>52995</v>
       </c>
       <c r="C69" s="4">
-        <v>4146</v>
+        <v>4164</v>
       </c>
       <c r="D69" s="4">
-        <v>12283</v>
+        <v>12562</v>
       </c>
       <c r="E69" s="4">
-        <v>68903</v>
+        <v>69721</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C70" s="4">
         <v>27</v>
       </c>
       <c r="D70" s="4">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E70" s="4">
-        <v>1404</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>726255</v>
+        <v>732332</v>
       </c>
       <c r="C71" s="4">
-        <v>15438</v>
+        <v>15504</v>
       </c>
       <c r="D71" s="4">
-        <v>110981</v>
+        <v>125643</v>
       </c>
       <c r="E71" s="4">
-        <v>852674</v>
+        <v>873479</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>138178</v>
+        <v>139955</v>
       </c>
       <c r="C72" s="4">
-        <v>6573</v>
+        <v>6612</v>
       </c>
       <c r="D72" s="4">
-        <v>6902</v>
+        <v>7189</v>
       </c>
       <c r="E72" s="4">
-        <v>151653</v>
+        <v>153756</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>15224</v>
+        <v>15500</v>
       </c>
       <c r="C73" s="4">
-        <v>1048</v>
+        <v>1057</v>
       </c>
       <c r="D73" s="4">
-        <v>4324</v>
+        <v>4487</v>
       </c>
       <c r="E73" s="4">
-        <v>20596</v>
+        <v>21044</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>11220</v>
+        <v>11285</v>
       </c>
       <c r="C74" s="4">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D74" s="4">
-        <v>1332</v>
+        <v>1360</v>
       </c>
       <c r="E74" s="4">
-        <v>12934</v>
+        <v>13030</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>21535</v>
+        <v>21834</v>
       </c>
       <c r="C75" s="4">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="D75" s="4">
-        <v>3250</v>
+        <v>3414</v>
       </c>
       <c r="E75" s="4">
-        <v>25504</v>
+        <v>25971</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>12141</v>
+        <v>12232</v>
       </c>
       <c r="C76" s="4">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D76" s="4">
-        <v>1443</v>
+        <v>1532</v>
       </c>
       <c r="E76" s="4">
-        <v>13930</v>
+        <v>14119</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="C77" s="4">
         <v>28</v>
       </c>
       <c r="D77" s="4">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E77" s="4">
-        <v>1500</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="C78" s="4">
         <v>108</v>
       </c>
       <c r="D78" s="4">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E78" s="4">
-        <v>2393</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2386,10 +2386,10 @@
         <v>77</v>
       </c>
       <c r="D79" s="4">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="E79" s="4">
-        <v>1061</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>532274</v>
+        <v>537996</v>
       </c>
       <c r="C80" s="4">
-        <v>19983</v>
+        <v>20159</v>
       </c>
       <c r="D80" s="4">
-        <v>21723</v>
+        <v>23016</v>
       </c>
       <c r="E80" s="4">
-        <v>573980</v>
+        <v>581171</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>3778</v>
+        <v>3830</v>
       </c>
       <c r="C81" s="4">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="D81" s="4">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="E81" s="4">
-        <v>4746</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>12388</v>
+        <v>12479</v>
       </c>
       <c r="C82" s="4">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="D82" s="4">
-        <v>2938</v>
+        <v>3077</v>
       </c>
       <c r="E82" s="4">
-        <v>15956</v>
+        <v>16191</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>14135</v>
+        <v>14196</v>
       </c>
       <c r="C83" s="4">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D83" s="4">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="E83" s="4">
-        <v>15007</v>
+        <v>15113</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>2987</v>
+        <v>2994</v>
       </c>
       <c r="C84" s="4">
         <v>195</v>
       </c>
       <c r="D84" s="4">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="E84" s="4">
-        <v>3842</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>272833</v>
+        <v>274568</v>
       </c>
       <c r="C85" s="4">
-        <v>8511</v>
+        <v>8620</v>
       </c>
       <c r="D85" s="4">
-        <v>16013</v>
+        <v>17499</v>
       </c>
       <c r="E85" s="4">
-        <v>297357</v>
+        <v>300687</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1433</v>
+        <v>1446</v>
       </c>
       <c r="C86" s="4">
         <v>45</v>
       </c>
       <c r="D86" s="4">
-        <v>1230</v>
+        <v>1237</v>
       </c>
       <c r="E86" s="4">
-        <v>2708</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>14304</v>
+        <v>14342</v>
       </c>
       <c r="C87" s="4">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D87" s="4">
-        <v>2542</v>
+        <v>2623</v>
       </c>
       <c r="E87" s="4">
-        <v>17169</v>
+        <v>17292</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2269</v>
+        <v>2290</v>
       </c>
       <c r="C89" s="4">
         <v>144</v>
       </c>
       <c r="D89" s="4">
-        <v>1298</v>
+        <v>1332</v>
       </c>
       <c r="E89" s="4">
-        <v>3711</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>11347</v>
+        <v>11404</v>
       </c>
       <c r="C90" s="4">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D90" s="4">
-        <v>2483</v>
+        <v>2564</v>
       </c>
       <c r="E90" s="4">
-        <v>14107</v>
+        <v>14247</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>6822</v>
+        <v>6840</v>
       </c>
       <c r="C91" s="4">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D91" s="4">
-        <v>1407</v>
+        <v>1459</v>
       </c>
       <c r="E91" s="4">
-        <v>9030</v>
+        <v>9101</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>85683</v>
+        <v>86329</v>
       </c>
       <c r="C92" s="4">
-        <v>3438</v>
+        <v>3468</v>
       </c>
       <c r="D92" s="4">
-        <v>9408</v>
+        <v>9648</v>
       </c>
       <c r="E92" s="4">
-        <v>98529</v>
+        <v>99445</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>41786</v>
+        <v>42219</v>
       </c>
       <c r="C93" s="4">
-        <v>9042</v>
+        <v>9156</v>
       </c>
       <c r="D93" s="4">
-        <v>11300</v>
+        <v>11697</v>
       </c>
       <c r="E93" s="4">
-        <v>62128</v>
+        <v>63072</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>22711</v>
+        <v>23341</v>
       </c>
       <c r="C94" s="4">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D94" s="4">
-        <v>1245</v>
+        <v>1401</v>
       </c>
       <c r="E94" s="4">
-        <v>24396</v>
+        <v>25186</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>63156</v>
+        <v>64274</v>
       </c>
       <c r="C95" s="4">
-        <v>2854</v>
+        <v>2868</v>
       </c>
       <c r="D95" s="4">
-        <v>10975</v>
+        <v>11519</v>
       </c>
       <c r="E95" s="4">
-        <v>76985</v>
+        <v>78661</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>11597</v>
+        <v>11661</v>
       </c>
       <c r="C96" s="4">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D96" s="4">
-        <v>1687</v>
+        <v>1719</v>
       </c>
       <c r="E96" s="4">
-        <v>13540</v>
+        <v>13639</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="C97" s="4">
         <v>37</v>
       </c>
       <c r="D97" s="4">
-        <v>1759</v>
+        <v>1786</v>
       </c>
       <c r="E97" s="4">
-        <v>2874</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>4351</v>
+        <v>4403</v>
       </c>
       <c r="C98" s="4">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D98" s="4">
-        <v>850</v>
+        <v>883</v>
       </c>
       <c r="E98" s="4">
-        <v>5488</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1135</v>
+        <v>1143</v>
       </c>
       <c r="C99" s="4">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="D99" s="4">
-        <v>1529</v>
+        <v>1549</v>
       </c>
       <c r="E99" s="4">
-        <v>3156</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="C100" s="4">
         <v>176</v>
       </c>
       <c r="D100" s="4">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="E100" s="4">
-        <v>2323</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>17053</v>
+        <v>17184</v>
       </c>
       <c r="C101" s="4">
-        <v>3057</v>
+        <v>3078</v>
       </c>
       <c r="D101" s="4">
-        <v>4422</v>
+        <v>4553</v>
       </c>
       <c r="E101" s="4">
-        <v>24532</v>
+        <v>24815</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>3259725</v>
+        <v>3292642</v>
       </c>
       <c r="C102" s="4">
-        <v>121085</v>
+        <v>122233</v>
       </c>
       <c r="D102" s="4">
-        <v>194527</v>
+        <v>201796</v>
       </c>
       <c r="E102" s="4">
-        <v>3575337</v>
+        <v>3616671</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>51535</v>
+        <v>51955</v>
       </c>
       <c r="C103" s="4">
-        <v>6661</v>
+        <v>6746</v>
       </c>
       <c r="D103" s="4">
-        <v>6414</v>
+        <v>6640</v>
       </c>
       <c r="E103" s="4">
-        <v>64610</v>
+        <v>65341</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1151</v>
+        <v>1156</v>
       </c>
       <c r="C105" s="4">
         <v>34</v>
       </c>
       <c r="D105" s="4">
-        <v>1154</v>
+        <v>1171</v>
       </c>
       <c r="E105" s="4">
-        <v>2339</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>192904</v>
+        <v>194540</v>
       </c>
       <c r="C106" s="4">
-        <v>9822</v>
+        <v>9878</v>
       </c>
       <c r="D106" s="4">
-        <v>9514</v>
+        <v>10282</v>
       </c>
       <c r="E106" s="4">
-        <v>212240</v>
+        <v>214700</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2856,16 +2856,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C107" s="4">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D107" s="4">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E107" s="4">
-        <v>1332</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>23190</v>
+        <v>23421</v>
       </c>
       <c r="C108" s="4">
-        <v>2010</v>
+        <v>2024</v>
       </c>
       <c r="D108" s="4">
-        <v>5407</v>
+        <v>5575</v>
       </c>
       <c r="E108" s="4">
-        <v>30607</v>
+        <v>31020</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>376415</v>
+        <v>380452</v>
       </c>
       <c r="C109" s="4">
-        <v>13696</v>
+        <v>13764</v>
       </c>
       <c r="D109" s="4">
-        <v>70981</v>
+        <v>74948</v>
       </c>
       <c r="E109" s="4">
-        <v>461092</v>
+        <v>469164</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>29161</v>
+        <v>29550</v>
       </c>
       <c r="C110" s="4">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="D110" s="4">
-        <v>4299</v>
+        <v>4416</v>
       </c>
       <c r="E110" s="4">
-        <v>34405</v>
+        <v>34916</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>6824</v>
+        <v>6857</v>
       </c>
       <c r="C111" s="4">
         <v>77</v>
       </c>
       <c r="D111" s="4">
-        <v>2567</v>
+        <v>2619</v>
       </c>
       <c r="E111" s="4">
-        <v>9468</v>
+        <v>9553</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>30372</v>
+        <v>30592</v>
       </c>
       <c r="C112" s="4">
-        <v>2217</v>
+        <v>2231</v>
       </c>
       <c r="D112" s="4">
-        <v>14717</v>
+        <v>15173</v>
       </c>
       <c r="E112" s="4">
-        <v>47306</v>
+        <v>47996</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>14882</v>
+        <v>14959</v>
       </c>
       <c r="C113" s="4">
-        <v>1796</v>
+        <v>1802</v>
       </c>
       <c r="D113" s="4">
-        <v>2052</v>
+        <v>2209</v>
       </c>
       <c r="E113" s="4">
-        <v>18730</v>
+        <v>18970</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>13473</v>
+        <v>13565</v>
       </c>
       <c r="C114" s="4">
         <v>318</v>
       </c>
       <c r="D114" s="4">
-        <v>1883</v>
+        <v>1977</v>
       </c>
       <c r="E114" s="4">
-        <v>15674</v>
+        <v>15860</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>13848</v>
+        <v>14077</v>
       </c>
       <c r="C115" s="4">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D115" s="4">
-        <v>3134</v>
+        <v>3238</v>
       </c>
       <c r="E115" s="4">
-        <v>17394</v>
+        <v>17730</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2130</v>
+        <v>2163</v>
       </c>
       <c r="C116" s="4">
         <v>29</v>
       </c>
       <c r="D116" s="4">
-        <v>775</v>
+        <v>815</v>
       </c>
       <c r="E116" s="4">
-        <v>2934</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>65010</v>
+        <v>65690</v>
       </c>
       <c r="C117" s="4">
-        <v>3346</v>
+        <v>3364</v>
       </c>
       <c r="D117" s="4">
-        <v>7067</v>
+        <v>7303</v>
       </c>
       <c r="E117" s="4">
-        <v>75423</v>
+        <v>76357</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>7797</v>
+        <v>7863</v>
       </c>
       <c r="C118" s="4">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D118" s="4">
-        <v>2556</v>
+        <v>2638</v>
       </c>
       <c r="E118" s="4">
-        <v>11424</v>
+        <v>11574</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C119" s="4">
         <v>8</v>
       </c>
       <c r="D119" s="4">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E119" s="4">
-        <v>561</v>
+        <v>570</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1481</v>
+        <v>1487</v>
       </c>
       <c r="C120" s="4">
         <v>167</v>
       </c>
       <c r="D120" s="4">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E120" s="4">
-        <v>1871</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>6235</v>
+        <v>6284</v>
       </c>
       <c r="C121" s="4">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D121" s="4">
-        <v>917</v>
+        <v>934</v>
       </c>
       <c r="E121" s="4">
-        <v>7264</v>
+        <v>7332</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>11433</v>
+        <v>11545</v>
       </c>
       <c r="C122" s="4">
-        <v>2473</v>
+        <v>2480</v>
       </c>
       <c r="D122" s="4">
-        <v>2444</v>
+        <v>2557</v>
       </c>
       <c r="E122" s="4">
-        <v>16350</v>
+        <v>16582</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="C123" s="4">
         <v>25</v>
       </c>
       <c r="D123" s="4">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E123" s="4">
-        <v>1802</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>139611</v>
+        <v>140754</v>
       </c>
       <c r="C124" s="4">
-        <v>11441</v>
+        <v>11582</v>
       </c>
       <c r="D124" s="4">
-        <v>22407</v>
+        <v>23290</v>
       </c>
       <c r="E124" s="4">
-        <v>173459</v>
+        <v>175626</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>11570</v>
+        <v>11695</v>
       </c>
       <c r="C125" s="4">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D125" s="4">
-        <v>2873</v>
+        <v>2938</v>
       </c>
       <c r="E125" s="4">
-        <v>14894</v>
+        <v>15089</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>41704</v>
+        <v>42024</v>
       </c>
       <c r="C126" s="4">
-        <v>6775</v>
+        <v>6809</v>
       </c>
       <c r="D126" s="4">
-        <v>10029</v>
+        <v>10221</v>
       </c>
       <c r="E126" s="4">
-        <v>58508</v>
+        <v>59054</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>100036</v>
+        <v>100844</v>
       </c>
       <c r="C127" s="4">
-        <v>6081</v>
+        <v>6119</v>
       </c>
       <c r="D127" s="4">
-        <v>10644</v>
+        <v>10893</v>
       </c>
       <c r="E127" s="4">
-        <v>116761</v>
+        <v>117856</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>5343</v>
+        <v>5354</v>
       </c>
       <c r="C128" s="4">
         <v>188</v>
       </c>
       <c r="D128" s="4">
-        <v>2170</v>
+        <v>2231</v>
       </c>
       <c r="E128" s="4">
-        <v>7701</v>
+        <v>7773</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>11947</v>
+        <v>12002</v>
       </c>
       <c r="C129" s="4">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D129" s="4">
-        <v>3297</v>
+        <v>3506</v>
       </c>
       <c r="E129" s="4">
-        <v>15606</v>
+        <v>15874</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>86901</v>
+        <v>87809</v>
       </c>
       <c r="C130" s="4">
-        <v>4696</v>
+        <v>4727</v>
       </c>
       <c r="D130" s="4">
-        <v>10951</v>
+        <v>11448</v>
       </c>
       <c r="E130" s="4">
-        <v>102548</v>
+        <v>103984</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>18991</v>
+        <v>19168</v>
       </c>
       <c r="C131" s="4">
-        <v>1139</v>
+        <v>1148</v>
       </c>
       <c r="D131" s="4">
-        <v>5470</v>
+        <v>5683</v>
       </c>
       <c r="E131" s="4">
-        <v>25600</v>
+        <v>25999</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3281,7 +3281,7 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C132" s="4">
         <v>32</v>
@@ -3290,7 +3290,7 @@
         <v>40</v>
       </c>
       <c r="E132" s="4">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3298,7 +3298,7 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C133" s="4">
         <v>1</v>
@@ -3307,7 +3307,7 @@
         <v>302</v>
       </c>
       <c r="E133" s="4">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>26954</v>
+        <v>27159</v>
       </c>
       <c r="C134" s="4">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D134" s="4">
-        <v>15521</v>
+        <v>15744</v>
       </c>
       <c r="E134" s="4">
-        <v>43024</v>
+        <v>43457</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="C135" s="4">
         <v>36</v>
       </c>
       <c r="D135" s="4">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E135" s="4">
-        <v>1792</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3352,13 +3352,13 @@
         <v>36</v>
       </c>
       <c r="C136" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136" s="4">
         <v>27</v>
       </c>
       <c r="E136" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137" ht="14" customHeight="1">
@@ -3366,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>1842</v>
+        <v>1853</v>
       </c>
       <c r="C137" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D137" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E137" s="4">
-        <v>1964</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>23242</v>
+        <v>23453</v>
       </c>
       <c r="C138" s="4">
-        <v>3772</v>
+        <v>3799</v>
       </c>
       <c r="D138" s="4">
-        <v>4447</v>
+        <v>4549</v>
       </c>
       <c r="E138" s="4">
-        <v>31461</v>
+        <v>31801</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3403,13 +3403,13 @@
         <v>625</v>
       </c>
       <c r="C139" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D139" s="4">
-        <v>1799</v>
+        <v>1901</v>
       </c>
       <c r="E139" s="4">
-        <v>2458</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>6305</v>
+        <v>6340</v>
       </c>
       <c r="C140" s="4">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D140" s="4">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E140" s="4">
-        <v>6770</v>
+        <v>6815</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>18804</v>
+        <v>19046</v>
       </c>
       <c r="C141" s="4">
-        <v>2009</v>
+        <v>2025</v>
       </c>
       <c r="D141" s="4">
-        <v>2284</v>
+        <v>2313</v>
       </c>
       <c r="E141" s="4">
-        <v>23097</v>
+        <v>23384</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>5023</v>
+        <v>5066</v>
       </c>
       <c r="C142" s="4">
         <v>81</v>
       </c>
       <c r="D142" s="4">
-        <v>3466</v>
+        <v>3536</v>
       </c>
       <c r="E142" s="4">
-        <v>8570</v>
+        <v>8683</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>14007</v>
+        <v>14157</v>
       </c>
       <c r="C143" s="4">
         <v>586</v>
       </c>
       <c r="D143" s="4">
-        <v>2386</v>
+        <v>2542</v>
       </c>
       <c r="E143" s="4">
-        <v>16979</v>
+        <v>17285</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>10075</v>
+        <v>10150</v>
       </c>
       <c r="C144" s="4">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D144" s="4">
-        <v>2007</v>
+        <v>2085</v>
       </c>
       <c r="E144" s="4">
-        <v>12456</v>
+        <v>12618</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>6916</v>
+        <v>6954</v>
       </c>
       <c r="C145" s="4">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D145" s="4">
-        <v>1991</v>
+        <v>2113</v>
       </c>
       <c r="E145" s="4">
-        <v>9105</v>
+        <v>9268</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>8135</v>
+        <v>8194</v>
       </c>
       <c r="C146" s="4">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D146" s="4">
-        <v>1165</v>
+        <v>1211</v>
       </c>
       <c r="E146" s="4">
-        <v>9755</v>
+        <v>9864</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>43563</v>
+        <v>43927</v>
       </c>
       <c r="C147" s="4">
-        <v>2782</v>
+        <v>2801</v>
       </c>
       <c r="D147" s="4">
-        <v>3840</v>
+        <v>3986</v>
       </c>
       <c r="E147" s="4">
-        <v>50185</v>
+        <v>50714</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>26057</v>
+        <v>26330</v>
       </c>
       <c r="C148" s="4">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D148" s="4">
-        <v>3304</v>
+        <v>3648</v>
       </c>
       <c r="E148" s="4">
-        <v>29918</v>
+        <v>30538</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3573,10 +3573,10 @@
         <v>235</v>
       </c>
       <c r="C149" s="4">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D149" s="4">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E149" s="4">
         <v>466</v>
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>4300</v>
+        <v>4352</v>
       </c>
       <c r="C150" s="4">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="D150" s="4">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="E150" s="4">
-        <v>5635</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>8601</v>
+        <v>8644</v>
       </c>
       <c r="C151" s="4">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D151" s="4">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="E151" s="4">
-        <v>9576</v>
+        <v>9647</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>173341</v>
+        <v>174260</v>
       </c>
       <c r="C153" s="4">
-        <v>6147</v>
+        <v>6162</v>
       </c>
       <c r="D153" s="4">
-        <v>75229</v>
+        <v>76293</v>
       </c>
       <c r="E153" s="4">
-        <v>254717</v>
+        <v>256715</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2676</v>
+        <v>2679</v>
       </c>
       <c r="C154" s="4">
         <v>82</v>
       </c>
       <c r="D154" s="4">
-        <v>1281</v>
+        <v>1365</v>
       </c>
       <c r="E154" s="4">
-        <v>4039</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>10664</v>
+        <v>10711</v>
       </c>
       <c r="C155" s="4">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D155" s="4">
-        <v>1310</v>
+        <v>1385</v>
       </c>
       <c r="E155" s="4">
-        <v>12120</v>
+        <v>12248</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>2013</v>
+        <v>2057</v>
       </c>
       <c r="C156" s="4">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D156" s="4">
-        <v>1174</v>
+        <v>1182</v>
       </c>
       <c r="E156" s="4">
-        <v>3865</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="C157" s="4">
         <v>122</v>
       </c>
       <c r="D157" s="4">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="E157" s="4">
-        <v>1629</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="C158" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D158" s="4">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E158" s="4">
-        <v>2060</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>26021</v>
+        <v>26367</v>
       </c>
       <c r="C159" s="4">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D159" s="4">
-        <v>1587</v>
+        <v>1614</v>
       </c>
       <c r="E159" s="4">
-        <v>28215</v>
+        <v>28591</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>49812</v>
+        <v>50530</v>
       </c>
       <c r="C160" s="4">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D160" s="4">
-        <v>3593</v>
+        <v>3911</v>
       </c>
       <c r="E160" s="4">
-        <v>53696</v>
+        <v>54733</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2126</v>
+        <v>2138</v>
       </c>
       <c r="C161" s="4">
         <v>37</v>
       </c>
       <c r="D161" s="4">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="E161" s="4">
-        <v>3029</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>198735</v>
+        <v>200404</v>
       </c>
       <c r="C162" s="4">
-        <v>9288</v>
+        <v>9318</v>
       </c>
       <c r="D162" s="4">
-        <v>38783</v>
+        <v>39524</v>
       </c>
       <c r="E162" s="4">
-        <v>246806</v>
+        <v>249246</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,7 +3808,7 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C163" s="4">
         <v>34</v>
@@ -3817,7 +3817,7 @@
         <v>44</v>
       </c>
       <c r="E163" s="4">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>23286</v>
+        <v>23554</v>
       </c>
       <c r="C164" s="4">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="D164" s="4">
-        <v>3309</v>
+        <v>3449</v>
       </c>
       <c r="E164" s="4">
-        <v>27543</v>
+        <v>27958</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="C165" s="4">
         <v>20</v>
       </c>
       <c r="D165" s="4">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E165" s="4">
-        <v>2215</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>39152</v>
+        <v>39356</v>
       </c>
       <c r="C166" s="4">
-        <v>5052</v>
+        <v>5102</v>
       </c>
       <c r="D166" s="4">
-        <v>28966</v>
+        <v>29432</v>
       </c>
       <c r="E166" s="4">
-        <v>73170</v>
+        <v>73890</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>13844</v>
+        <v>13951</v>
       </c>
       <c r="C167" s="4">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="D167" s="4">
-        <v>4287</v>
+        <v>4353</v>
       </c>
       <c r="E167" s="4">
-        <v>18934</v>
+        <v>19116</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3783</v>
+        <v>3795</v>
       </c>
       <c r="C168" s="4">
         <v>82</v>
       </c>
       <c r="D168" s="4">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="E168" s="4">
-        <v>4720</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>4042</v>
+        <v>4056</v>
       </c>
       <c r="C169" s="4">
         <v>47</v>
       </c>
       <c r="D169" s="4">
-        <v>2028</v>
+        <v>2081</v>
       </c>
       <c r="E169" s="4">
-        <v>6117</v>
+        <v>6184</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>9063</v>
+        <v>9133</v>
       </c>
       <c r="C170" s="4">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="D170" s="4">
-        <v>2128</v>
+        <v>2143</v>
       </c>
       <c r="E170" s="4">
-        <v>11929</v>
+        <v>12017</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>295609</v>
+        <v>298366</v>
       </c>
       <c r="C171" s="4">
-        <v>14791</v>
+        <v>14950</v>
       </c>
       <c r="D171" s="4">
-        <v>25667</v>
+        <v>27003</v>
       </c>
       <c r="E171" s="4">
-        <v>336067</v>
+        <v>340319</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>6818</v>
+        <v>6834</v>
       </c>
       <c r="C172" s="4">
         <v>663</v>
       </c>
       <c r="D172" s="4">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="E172" s="4">
-        <v>8855</v>
+        <v>8874</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>4795</v>
+        <v>4868</v>
       </c>
       <c r="C173" s="4">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="D173" s="4">
-        <v>2805</v>
+        <v>2948</v>
       </c>
       <c r="E173" s="4">
-        <v>8222</v>
+        <v>8447</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,16 +3995,16 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C174" s="4">
         <v>9</v>
       </c>
       <c r="D174" s="4">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E174" s="4">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>35017</v>
+        <v>35430</v>
       </c>
       <c r="C175" s="4">
-        <v>1030</v>
+        <v>1047</v>
       </c>
       <c r="D175" s="4">
-        <v>3741</v>
+        <v>4138</v>
       </c>
       <c r="E175" s="4">
-        <v>39788</v>
+        <v>40615</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>22502</v>
+        <v>22648</v>
       </c>
       <c r="C176" s="4">
-        <v>1456</v>
+        <v>1471</v>
       </c>
       <c r="D176" s="4">
-        <v>6298</v>
+        <v>6503</v>
       </c>
       <c r="E176" s="4">
-        <v>30256</v>
+        <v>30622</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>2897</v>
+        <v>2927</v>
       </c>
       <c r="C177" s="4">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="D177" s="4">
-        <v>1414</v>
+        <v>1454</v>
       </c>
       <c r="E177" s="4">
-        <v>5046</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>6365</v>
+        <v>6383</v>
       </c>
       <c r="C178" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D178" s="4">
-        <v>2350</v>
+        <v>2371</v>
       </c>
       <c r="E178" s="4">
-        <v>8846</v>
+        <v>8886</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>185983</v>
+        <v>187196</v>
       </c>
       <c r="C179" s="4">
-        <v>36334</v>
+        <v>36573</v>
       </c>
       <c r="D179" s="4">
-        <v>32006</v>
+        <v>33349</v>
       </c>
       <c r="E179" s="4">
-        <v>254323</v>
+        <v>257118</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C180" s="4">
         <v>176</v>
       </c>
       <c r="D180" s="4">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E180" s="4">
-        <v>879</v>
+        <v>885</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C181" s="4">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D181" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E181" s="4">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>23205</v>
+        <v>23483</v>
       </c>
       <c r="C182" s="4">
-        <v>4971</v>
+        <v>5005</v>
       </c>
       <c r="D182" s="4">
-        <v>6768</v>
+        <v>6881</v>
       </c>
       <c r="E182" s="4">
-        <v>34944</v>
+        <v>35369</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>11614</v>
+        <v>11736</v>
       </c>
       <c r="C183" s="4">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D183" s="4">
-        <v>3370</v>
+        <v>3508</v>
       </c>
       <c r="E183" s="4">
-        <v>15851</v>
+        <v>16113</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>7657</v>
+        <v>7708</v>
       </c>
       <c r="C184" s="4">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="D184" s="4">
-        <v>1939</v>
+        <v>2080</v>
       </c>
       <c r="E184" s="4">
-        <v>10511</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>57219</v>
+        <v>57790</v>
       </c>
       <c r="C185" s="4">
-        <v>5536</v>
+        <v>5568</v>
       </c>
       <c r="D185" s="4">
-        <v>12680</v>
+        <v>12981</v>
       </c>
       <c r="E185" s="4">
-        <v>75435</v>
+        <v>76339</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>1698</v>
+        <v>1708</v>
       </c>
       <c r="C186" s="4">
         <v>208</v>
       </c>
       <c r="D186" s="4">
-        <v>873</v>
+        <v>893</v>
       </c>
       <c r="E186" s="4">
-        <v>2779</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>8584</v>
+        <v>8717</v>
       </c>
       <c r="C187" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D187" s="4">
-        <v>690</v>
+        <v>720</v>
       </c>
       <c r="E187" s="4">
-        <v>9356</v>
+        <v>9520</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>26592</v>
+        <v>27032</v>
       </c>
       <c r="C188" s="4">
-        <v>1062</v>
+        <v>1074</v>
       </c>
       <c r="D188" s="4">
-        <v>3755</v>
+        <v>3913</v>
       </c>
       <c r="E188" s="4">
-        <v>31409</v>
+        <v>32019</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>63063</v>
+        <v>63747</v>
       </c>
       <c r="C189" s="4">
-        <v>5977</v>
+        <v>5984</v>
       </c>
       <c r="D189" s="4">
-        <v>8047</v>
+        <v>8237</v>
       </c>
       <c r="E189" s="4">
-        <v>77087</v>
+        <v>77968</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>6876</v>
+        <v>7014</v>
       </c>
       <c r="C190" s="4">
         <v>35</v>
       </c>
       <c r="D190" s="4">
-        <v>879</v>
+        <v>942</v>
       </c>
       <c r="E190" s="4">
-        <v>7790</v>
+        <v>7991</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2395</v>
+        <v>2422</v>
       </c>
       <c r="C191" s="4">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D191" s="4">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="E191" s="4">
-        <v>3236</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>40183</v>
+        <v>40574</v>
       </c>
       <c r="C192" s="4">
-        <v>12119</v>
+        <v>12126</v>
       </c>
       <c r="D192" s="4">
-        <v>7835</v>
+        <v>7987</v>
       </c>
       <c r="E192" s="4">
-        <v>60137</v>
+        <v>60687</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4324,10 +4324,10 @@
         <v>27</v>
       </c>
       <c r="D193" s="4">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E193" s="4">
-        <v>1190</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1668</v>
+        <v>1678</v>
       </c>
       <c r="C194" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D194" s="4">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="E194" s="4">
-        <v>2137</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>5071</v>
+        <v>5158</v>
       </c>
       <c r="C195" s="4">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D195" s="4">
-        <v>991</v>
+        <v>1093</v>
       </c>
       <c r="E195" s="4">
-        <v>6523</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>4730</v>
+        <v>4831</v>
       </c>
       <c r="C196" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D196" s="4">
-        <v>479</v>
+        <v>565</v>
       </c>
       <c r="E196" s="4">
-        <v>5329</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3500</v>
+        <v>3538</v>
       </c>
       <c r="C197" s="4">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D197" s="4">
-        <v>1883</v>
+        <v>2051</v>
       </c>
       <c r="E197" s="4">
-        <v>5717</v>
+        <v>5926</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4403,16 +4403,16 @@
         <v>201</v>
       </c>
       <c r="B198" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C198" s="4">
         <v>56</v>
       </c>
       <c r="D198" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E198" s="4">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>9986</v>
+        <v>10060</v>
       </c>
       <c r="C199" s="4">
         <v>251</v>
       </c>
       <c r="D199" s="4">
-        <v>4799</v>
+        <v>4870</v>
       </c>
       <c r="E199" s="4">
-        <v>15036</v>
+        <v>15181</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>61936</v>
+        <v>62447</v>
       </c>
       <c r="C200" s="4">
-        <v>4721</v>
+        <v>4761</v>
       </c>
       <c r="D200" s="4">
-        <v>3765</v>
+        <v>3867</v>
       </c>
       <c r="E200" s="4">
-        <v>70422</v>
+        <v>71075</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5218</v>
+        <v>5261</v>
       </c>
       <c r="C201" s="4">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D201" s="4">
-        <v>2134</v>
+        <v>2183</v>
       </c>
       <c r="E201" s="4">
-        <v>7488</v>
+        <v>7582</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>15898</v>
+        <v>16036</v>
       </c>
       <c r="C202" s="4">
-        <v>1806</v>
+        <v>1817</v>
       </c>
       <c r="D202" s="4">
-        <v>1640</v>
+        <v>1762</v>
       </c>
       <c r="E202" s="4">
-        <v>19344</v>
+        <v>19615</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>4939</v>
+        <v>5060</v>
       </c>
       <c r="C203" s="4">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D203" s="4">
-        <v>1428</v>
+        <v>1494</v>
       </c>
       <c r="E203" s="4">
-        <v>6724</v>
+        <v>6917</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>4664</v>
+        <v>4736</v>
       </c>
       <c r="C204" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D204" s="4">
-        <v>1419</v>
+        <v>1436</v>
       </c>
       <c r="E204" s="4">
-        <v>6144</v>
+        <v>6234</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>13272</v>
+        <v>13497</v>
       </c>
       <c r="C205" s="4">
-        <v>1349</v>
+        <v>1354</v>
       </c>
       <c r="D205" s="4">
-        <v>1855</v>
+        <v>1944</v>
       </c>
       <c r="E205" s="4">
-        <v>16476</v>
+        <v>16795</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>24987</v>
+        <v>25300</v>
       </c>
       <c r="C206" s="4">
-        <v>6624</v>
+        <v>6672</v>
       </c>
       <c r="D206" s="4">
-        <v>10933</v>
+        <v>11217</v>
       </c>
       <c r="E206" s="4">
-        <v>42544</v>
+        <v>43189</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2423</v>
+        <v>2434</v>
       </c>
       <c r="C207" s="4">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D207" s="4">
-        <v>1496</v>
+        <v>1570</v>
       </c>
       <c r="E207" s="4">
-        <v>3994</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,16 +4573,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="C208" s="4">
         <v>12</v>
       </c>
       <c r="D208" s="4">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E208" s="4">
-        <v>1158</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>15472</v>
+        <v>15482</v>
       </c>
       <c r="C209" s="4">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D209" s="4">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="E209" s="4">
-        <v>16132</v>
+        <v>16163</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C210" s="4">
         <v>65</v>
       </c>
       <c r="D210" s="4">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="E210" s="4">
-        <v>1076</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>10257</v>
+        <v>10302</v>
       </c>
       <c r="C211" s="4">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D211" s="4">
-        <v>2256</v>
+        <v>2294</v>
       </c>
       <c r="E211" s="4">
-        <v>12889</v>
+        <v>12978</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4641,7 +4641,7 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C212" s="4">
         <v>97</v>
@@ -4650,7 +4650,7 @@
         <v>74</v>
       </c>
       <c r="E212" s="4">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>155212</v>
+        <v>156298</v>
       </c>
       <c r="C213" s="4">
-        <v>8698</v>
+        <v>8738</v>
       </c>
       <c r="D213" s="4">
-        <v>14990</v>
+        <v>15476</v>
       </c>
       <c r="E213" s="4">
-        <v>178900</v>
+        <v>180512</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3657</v>
+        <v>3680</v>
       </c>
       <c r="C214" s="4">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D214" s="4">
-        <v>3542</v>
+        <v>3576</v>
       </c>
       <c r="E214" s="4">
-        <v>7554</v>
+        <v>7612</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>42428</v>
+        <v>42858</v>
       </c>
       <c r="C215" s="4">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D215" s="4">
-        <v>4839</v>
+        <v>5254</v>
       </c>
       <c r="E215" s="4">
-        <v>47774</v>
+        <v>48624</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2327</v>
+        <v>2380</v>
       </c>
       <c r="C216" s="4">
         <v>129</v>
       </c>
       <c r="D216" s="4">
-        <v>1302</v>
+        <v>1313</v>
       </c>
       <c r="E216" s="4">
-        <v>3758</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4732,10 +4732,10 @@
         <v>6</v>
       </c>
       <c r="D217" s="4">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E217" s="4">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E218" s="4">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4760,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1199</v>
+        <v>1204</v>
       </c>
       <c r="C219" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D219" s="4">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="E219" s="4">
-        <v>1770</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>3170</v>
+        <v>3181</v>
       </c>
       <c r="C220" s="4">
         <v>252</v>
       </c>
       <c r="D220" s="4">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="E220" s="4">
-        <v>4084</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1347344</v>
+        <v>1361387</v>
       </c>
       <c r="C221" s="4">
-        <v>83627</v>
+        <v>84029</v>
       </c>
       <c r="D221" s="4">
-        <v>122394</v>
+        <v>126266</v>
       </c>
       <c r="E221" s="4">
-        <v>1553365</v>
+        <v>1571682</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>75906</v>
+        <v>76135</v>
       </c>
       <c r="C222" s="4">
-        <v>3019</v>
+        <v>3029</v>
       </c>
       <c r="D222" s="4">
-        <v>31528</v>
+        <v>32809</v>
       </c>
       <c r="E222" s="4">
-        <v>110453</v>
+        <v>111973</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4834,10 +4834,10 @@
         <v>3</v>
       </c>
       <c r="D223" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E223" s="4">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>2776</v>
+        <v>2819</v>
       </c>
       <c r="C224" s="4">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D224" s="4">
-        <v>953</v>
+        <v>963</v>
       </c>
       <c r="E224" s="4">
-        <v>3830</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4862,16 +4862,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C225" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D225" s="4">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E225" s="4">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>19754</v>
+        <v>19997</v>
       </c>
       <c r="C226" s="4">
-        <v>1010</v>
+        <v>1043</v>
       </c>
       <c r="D226" s="4">
-        <v>2720</v>
+        <v>2916</v>
       </c>
       <c r="E226" s="4">
-        <v>23484</v>
+        <v>23956</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>66711</v>
+        <v>67023</v>
       </c>
       <c r="C227" s="4">
-        <v>1422</v>
+        <v>1429</v>
       </c>
       <c r="D227" s="4">
-        <v>33426</v>
+        <v>34070</v>
       </c>
       <c r="E227" s="4">
-        <v>101559</v>
+        <v>102522</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>813010</v>
+        <v>822472</v>
       </c>
       <c r="C228" s="4">
-        <v>37272</v>
+        <v>37530</v>
       </c>
       <c r="D228" s="4">
-        <v>89016</v>
+        <v>92569</v>
       </c>
       <c r="E228" s="4">
-        <v>939298</v>
+        <v>952571</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>8950</v>
+        <v>9037</v>
       </c>
       <c r="C229" s="4">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D229" s="4">
-        <v>1984</v>
+        <v>2081</v>
       </c>
       <c r="E229" s="4">
-        <v>11141</v>
+        <v>11329</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>7573</v>
+        <v>7668</v>
       </c>
       <c r="C230" s="4">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="D230" s="4">
-        <v>3514</v>
+        <v>3573</v>
       </c>
       <c r="E230" s="4">
-        <v>11919</v>
+        <v>12076</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>9133</v>
+        <v>9245</v>
       </c>
       <c r="C231" s="4">
-        <v>1799</v>
+        <v>1823</v>
       </c>
       <c r="D231" s="4">
-        <v>2737</v>
+        <v>2796</v>
       </c>
       <c r="E231" s="4">
-        <v>13669</v>
+        <v>13864</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="C232" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D232" s="4">
-        <v>1317</v>
+        <v>1364</v>
       </c>
       <c r="E232" s="4">
-        <v>2127</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>21278</v>
+        <v>21537</v>
       </c>
       <c r="C233" s="4">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D233" s="4">
-        <v>874</v>
+        <v>932</v>
       </c>
       <c r="E233" s="4">
-        <v>22485</v>
+        <v>22803</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>37580</v>
+        <v>37845</v>
       </c>
       <c r="C234" s="4">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="D234" s="4">
-        <v>5529</v>
+        <v>6069</v>
       </c>
       <c r="E234" s="4">
-        <v>44183</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>15755</v>
+        <v>15961</v>
       </c>
       <c r="C235" s="4">
-        <v>1649</v>
+        <v>1661</v>
       </c>
       <c r="D235" s="4">
-        <v>4628</v>
+        <v>4733</v>
       </c>
       <c r="E235" s="4">
-        <v>22032</v>
+        <v>22355</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>33741</v>
+        <v>34015</v>
       </c>
       <c r="C236" s="4">
-        <v>1355</v>
+        <v>1378</v>
       </c>
       <c r="D236" s="4">
-        <v>10372</v>
+        <v>10645</v>
       </c>
       <c r="E236" s="4">
-        <v>45468</v>
+        <v>46038</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>83227</v>
+        <v>84314</v>
       </c>
       <c r="C237" s="4">
-        <v>1076</v>
+        <v>1085</v>
       </c>
       <c r="D237" s="4">
-        <v>5609</v>
+        <v>6150</v>
       </c>
       <c r="E237" s="4">
-        <v>89912</v>
+        <v>91549</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>26199</v>
+        <v>26475</v>
       </c>
       <c r="C238" s="4">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="D238" s="4">
-        <v>1561</v>
+        <v>1661</v>
       </c>
       <c r="E238" s="4">
-        <v>28450</v>
+        <v>28832</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>4058</v>
+        <v>4072</v>
       </c>
       <c r="C239" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D239" s="4">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="E239" s="4">
-        <v>4437</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>31378</v>
+        <v>31609</v>
       </c>
       <c r="C240" s="4">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D240" s="4">
-        <v>3415</v>
+        <v>3814</v>
       </c>
       <c r="E240" s="4">
-        <v>35299</v>
+        <v>35930</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>306849</v>
+        <v>309631</v>
       </c>
       <c r="C241" s="4">
-        <v>4139</v>
+        <v>4166</v>
       </c>
       <c r="D241" s="4">
-        <v>32085</v>
+        <v>32535</v>
       </c>
       <c r="E241" s="4">
-        <v>343073</v>
+        <v>346332</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>26836</v>
+        <v>27072</v>
       </c>
       <c r="C242" s="4">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="D242" s="4">
-        <v>1786</v>
+        <v>1907</v>
       </c>
       <c r="E242" s="4">
-        <v>29339</v>
+        <v>29703</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="C243" s="4">
         <v>276</v>
       </c>
       <c r="D243" s="4">
-        <v>1690</v>
+        <v>1699</v>
       </c>
       <c r="E243" s="4">
-        <v>3449</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>95153</v>
+        <v>95548</v>
       </c>
       <c r="C244" s="4">
-        <v>4871</v>
+        <v>4890</v>
       </c>
       <c r="D244" s="4">
-        <v>15703</v>
+        <v>16131</v>
       </c>
       <c r="E244" s="4">
-        <v>115727</v>
+        <v>116569</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>10233</v>
+        <v>10289</v>
       </c>
       <c r="C245" s="4">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D245" s="4">
-        <v>3181</v>
+        <v>3272</v>
       </c>
       <c r="E245" s="4">
-        <v>13876</v>
+        <v>14024</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>19175</v>
+        <v>19436</v>
       </c>
       <c r="C246" s="4">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D246" s="4">
-        <v>921</v>
+        <v>994</v>
       </c>
       <c r="E246" s="4">
-        <v>20253</v>
+        <v>20589</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>346705</v>
+        <v>350129</v>
       </c>
       <c r="C247" s="4">
-        <v>13249</v>
+        <v>13359</v>
       </c>
       <c r="D247" s="4">
-        <v>36881</v>
+        <v>39117</v>
       </c>
       <c r="E247" s="4">
-        <v>396835</v>
+        <v>402605</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>26191</v>
+        <v>26486</v>
       </c>
       <c r="C248" s="4">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="D248" s="4">
-        <v>5125</v>
+        <v>5461</v>
       </c>
       <c r="E248" s="4">
-        <v>32154</v>
+        <v>32789</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="C249" s="4">
         <v>40</v>
       </c>
       <c r="D249" s="4">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E249" s="4">
-        <v>1092</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>38532</v>
+        <v>38851</v>
       </c>
       <c r="C250" s="4">
-        <v>2925</v>
+        <v>2930</v>
       </c>
       <c r="D250" s="4">
-        <v>4112</v>
+        <v>4217</v>
       </c>
       <c r="E250" s="4">
-        <v>45569</v>
+        <v>45998</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>14248</v>
+        <v>14373</v>
       </c>
       <c r="C251" s="4">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="D251" s="4">
-        <v>2691</v>
+        <v>2780</v>
       </c>
       <c r="E251" s="4">
-        <v>18644</v>
+        <v>18860</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2084</v>
+        <v>2093</v>
       </c>
       <c r="C252" s="4">
         <v>81</v>
       </c>
       <c r="D252" s="4">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="E252" s="4">
-        <v>2523</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>6015</v>
+        <v>6067</v>
       </c>
       <c r="C253" s="4">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D253" s="4">
-        <v>1248</v>
+        <v>1253</v>
       </c>
       <c r="E253" s="4">
-        <v>7760</v>
+        <v>7822</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>14570</v>
+        <v>14690</v>
       </c>
       <c r="C254" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D254" s="4">
-        <v>2892</v>
+        <v>3117</v>
       </c>
       <c r="E254" s="4">
-        <v>17577</v>
+        <v>17923</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>8393</v>
+        <v>8506</v>
       </c>
       <c r="C255" s="4">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D255" s="4">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="E255" s="4">
-        <v>8949</v>
+        <v>9081</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>127576</v>
+        <v>128041</v>
       </c>
       <c r="C256" s="4">
-        <v>5817</v>
+        <v>6231</v>
       </c>
       <c r="D256" s="4">
-        <v>3147</v>
+        <v>3310</v>
       </c>
       <c r="E256" s="4">
-        <v>136540</v>
+        <v>137582</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>18506265</v>
+        <v>18700767</v>
       </c>
       <c r="C257" s="4">
-        <v>977294</v>
+        <v>983897</v>
       </c>
       <c r="D257" s="4">
-        <v>2083584</v>
+        <v>2168000</v>
       </c>
       <c r="E257" s="4">
-        <v>21567143</v>
+        <v>21852664</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
